--- a/biology/Botanique/Claude_Monet_(rose)/Claude_Monet_(rose).xlsx
+++ b/biology/Botanique/Claude_Monet_(rose)/Claude_Monet_(rose).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-'Claude Monet' est un cultivar de rosier obtenu en 1992 par Jack Christensen[1] et commercialisé par la maison Delbard dans la catégorie des « roses de peintres[2] » (nom commercial Jacdesa) de la famille des hybrides de thé.
+'Claude Monet' est un cultivar de rosier obtenu en 1992 par Jack Christensen et commercialisé par la maison Delbard dans la catégorie des « roses de peintres » (nom commercial Jacdesa) de la famille des hybrides de thé.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette rose semi-double a un coloris panaché de rose et de jaune qui varie d'une fleur à l'autre et fleurit en plein soleil de juin à l'automne, offrant un léger parfum de notes de poire et de citron. Son buisson au feuillage vert sombre peut atteindre 1 mètre de hauteur pour 50 à 60 cm de largeur. Elle a besoin d'être rabattue au tiers avant le printemps. 
 Cette rose a été baptisée d'après le fameux peintre impressionniste, Claude Monet (1840-1926), enterré à Giverny.
